--- a/صيدليات دكتور مصطفي طلعت_2026-01-15_17-55.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-15_17-55.xlsx
@@ -221,6 +221,9 @@
     <t>PENTABURN 0.25% TOP. OINT. 15 GM</t>
   </si>
   <si>
+    <t>POLYFRESH 0.2% EYE DROPS 10 ML</t>
+  </si>
+  <si>
     <t>PREDSOL FORTE 15MG/5ML SYRUP 60ML</t>
   </si>
   <si>
@@ -255,6 +258,9 @@
   </si>
   <si>
     <t>TELFAST 180MG 20 F.C. TABS</t>
+  </si>
+  <si>
+    <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
   </si>
   <si>
     <t>TOP-4 CREAM 15 GM</t>
@@ -2127,13 +2133,13 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
@@ -2153,17 +2159,17 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2179,17 +2185,17 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
@@ -2205,17 +2211,17 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>20.399999999999999</v>
+        <v>69</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" ht="24.75" customHeight="1">
@@ -2223,7 +2229,7 @@
         <v>51</v>
       </c>
       <c t="s" r="B54" s="7">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -2231,13 +2237,13 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>26</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
@@ -2249,7 +2255,7 @@
         <v>52</v>
       </c>
       <c t="s" r="B55" s="7">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -2257,17 +2263,17 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" ht="24.75" customHeight="1">
@@ -2283,17 +2289,17 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2301,7 +2307,7 @@
         <v>54</v>
       </c>
       <c t="s" r="B57" s="7">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -2309,13 +2315,13 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>149.5</v>
+        <v>35</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
@@ -2335,17 +2341,17 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>80</v>
+        <v>149.5</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" ht="24.75" customHeight="1">
@@ -2361,17 +2367,17 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60" ht="25.5" customHeight="1">
@@ -2387,17 +2393,17 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" ht="24.75" customHeight="1">
@@ -2413,13 +2419,13 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>79</v>
+        <v>8</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
@@ -2439,17 +2445,17 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>122</v>
+        <v>18</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63" ht="25.5" customHeight="1">
@@ -2465,13 +2471,13 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
@@ -2497,7 +2503,7 @@
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>68</v>
+        <v>122</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
@@ -2517,13 +2523,13 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
@@ -2543,17 +2549,17 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>66.640000000000001</v>
+        <v>68</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -2569,13 +2575,13 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>91</v>
+        <v>8</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
@@ -2587,7 +2593,7 @@
         <v>65</v>
       </c>
       <c t="s" r="B68" s="7">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -2595,17 +2601,17 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>-375</v>
+        <v>66.640000000000001</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69" ht="24.75" customHeight="1">
@@ -2613,7 +2619,7 @@
         <v>66</v>
       </c>
       <c t="s" r="B69" s="7">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
@@ -2621,17 +2627,17 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="M69" s="9"/>
       <c t="s" r="N69" s="7">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" ht="25.5" customHeight="1">
@@ -2647,13 +2653,13 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>40</v>
+        <v>-375</v>
       </c>
       <c r="M70" s="9"/>
       <c t="s" r="N70" s="7">
@@ -2673,17 +2679,17 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>13.880000000000001</v>
+        <v>14</v>
       </c>
       <c r="M71" s="9"/>
       <c t="s" r="N71" s="7">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -2691,7 +2697,7 @@
         <v>69</v>
       </c>
       <c t="s" r="B72" s="7">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -2699,13 +2705,13 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="M72" s="9"/>
       <c t="s" r="N72" s="7">
@@ -2717,7 +2723,7 @@
         <v>70</v>
       </c>
       <c t="s" r="B73" s="7">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -2725,17 +2731,17 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>188.09999999999999</v>
+        <v>13.880000000000001</v>
       </c>
       <c r="M73" s="9"/>
       <c t="s" r="N73" s="7">
-        <v>9</v>
+        <v>35</v>
       </c>
     </row>
     <row r="74" ht="24.75" customHeight="1">
@@ -2751,17 +2757,17 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="M74" s="9"/>
       <c t="s" r="N74" s="7">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75" ht="25.5" customHeight="1">
@@ -2783,7 +2789,7 @@
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>50</v>
+        <v>188.09999999999999</v>
       </c>
       <c r="M75" s="9"/>
       <c t="s" r="N75" s="7">
@@ -2803,17 +2809,17 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>102</v>
+        <v>35</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="M76" s="9"/>
       <c t="s" r="N76" s="7">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -2821,7 +2827,7 @@
         <v>74</v>
       </c>
       <c t="s" r="B77" s="7">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -2829,13 +2835,13 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="M77" s="9"/>
       <c t="s" r="N77" s="7">
@@ -2847,7 +2853,7 @@
         <v>75</v>
       </c>
       <c t="s" r="B78" s="7">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
@@ -2855,13 +2861,13 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="M78" s="9"/>
       <c t="s" r="N78" s="7">
@@ -2881,13 +2887,13 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M79" s="9"/>
       <c t="s" r="N79" s="7">
@@ -2907,13 +2913,13 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="M80" s="9"/>
       <c t="s" r="N80" s="7">
@@ -2933,13 +2939,13 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M81" s="9"/>
       <c t="s" r="N81" s="7">
@@ -2959,13 +2965,13 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>109</v>
+        <v>54</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="M82" s="9"/>
       <c t="s" r="N82" s="7">
@@ -2973,37 +2979,89 @@
       </c>
     </row>
     <row r="83" ht="25.5" customHeight="1">
-      <c r="K83" s="10">
-        <v>3031.5599999999999</v>
-      </c>
-      <c r="L83" s="10"/>
-      <c r="M83" s="10"/>
-      <c r="N83" s="10"/>
-    </row>
-    <row r="84" ht="17.25" customHeight="1">
-      <c t="s" r="A84" s="11">
+      <c r="A83" s="6">
+        <v>80</v>
+      </c>
+      <c t="s" r="B83" s="7">
+        <v>109</v>
+      </c>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c t="s" r="H83" s="8">
+        <v>67</v>
+      </c>
+      <c r="I83" s="8"/>
+      <c r="J83" s="8"/>
+      <c r="K83" s="8"/>
+      <c r="L83" s="9">
+        <v>25</v>
+      </c>
+      <c r="M83" s="9"/>
+      <c t="s" r="N83" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" ht="24.75" customHeight="1">
+      <c r="A84" s="6">
+        <v>81</v>
+      </c>
+      <c t="s" r="B84" s="7">
         <v>110</v>
       </c>
-      <c r="B84" s="11"/>
-      <c r="C84" s="11"/>
-      <c r="D84" s="11"/>
-      <c r="E84" s="11"/>
-      <c t="s" r="F84" s="12">
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
+      <c t="s" r="H84" s="8">
         <v>111</v>
       </c>
-      <c r="G84" s="12"/>
-      <c r="H84" s="13"/>
-      <c t="s" r="I84" s="14">
+      <c r="I84" s="8"/>
+      <c r="J84" s="8"/>
+      <c r="K84" s="8"/>
+      <c r="L84" s="9">
+        <v>45</v>
+      </c>
+      <c r="M84" s="9"/>
+      <c t="s" r="N84" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" ht="26.25" customHeight="1">
+      <c r="K85" s="10">
+        <v>3117.5599999999999</v>
+      </c>
+      <c r="L85" s="10"/>
+      <c r="M85" s="10"/>
+      <c r="N85" s="10"/>
+    </row>
+    <row r="86" ht="16.5" customHeight="1">
+      <c t="s" r="A86" s="11">
         <v>112</v>
       </c>
-      <c r="J84" s="14"/>
-      <c r="K84" s="14"/>
-      <c r="L84" s="14"/>
-      <c r="M84" s="14"/>
-      <c r="N84" s="14"/>
+      <c r="B86" s="11"/>
+      <c r="C86" s="11"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="11"/>
+      <c t="s" r="F86" s="12">
+        <v>113</v>
+      </c>
+      <c r="G86" s="12"/>
+      <c r="H86" s="13"/>
+      <c t="s" r="I86" s="14">
+        <v>114</v>
+      </c>
+      <c r="J86" s="14"/>
+      <c r="K86" s="14"/>
+      <c r="L86" s="14"/>
+      <c r="M86" s="14"/>
+      <c r="N86" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="248">
+  <mergeCells count="254">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -3248,10 +3306,16 @@
     <mergeCell ref="B82:G82"/>
     <mergeCell ref="H82:K82"/>
     <mergeCell ref="L82:M82"/>
-    <mergeCell ref="K83:N83"/>
-    <mergeCell ref="A84:E84"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="I84:N84"/>
+    <mergeCell ref="B83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="B84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="K85:N85"/>
+    <mergeCell ref="A86:E86"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="I86:N86"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
